--- a/scripts/Edouard/Correlation_matrix_ville.xlsx
+++ b/scripts/Edouard/Correlation_matrix_ville.xlsx
@@ -1,47 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Répertoires Git/toflit18_data_GIT/scripts/Edouard/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B0C275-4B93-9D45-BE1C-D04E20D14437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="10720" windowHeight="6180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Imports" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Exports" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Imports" sheetId="1" r:id="rId1"/>
+    <sheet name="Exports" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
   <si>
-    <t xml:space="preserve"/>
+    <t/>
   </si>
   <si>
-    <t xml:space="preserve">Nantes</t>
+    <t>Nantes</t>
   </si>
   <si>
-    <t xml:space="preserve">Marseille</t>
+    <t>Marseille</t>
   </si>
   <si>
-    <t xml:space="preserve">Bordeaux</t>
+    <t>Bordeaux</t>
   </si>
   <si>
-    <t xml:space="preserve">La Rochelle</t>
+    <t>La Rochelle</t>
   </si>
   <si>
-    <t xml:space="preserve">Bayonne</t>
+    <t>Bayonne</t>
   </si>
   <si>
-    <t xml:space="preserve">Rennes</t>
+    <t>Rennes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -70,13 +77,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -358,14 +375,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,159 +407,173 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.382489401642671</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.670034475644377</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.755493413463443</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.684157008417549</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.38248940164267098</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.67003447564437701</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.75549341346344301</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.68415700841754901</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.340680138398882</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.382489401642671</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.620761926187379</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.336750971906087</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.00874989787177185</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.264307703887171</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" s="1">
+        <v>0.38248940164267098</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.62076192618737902</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.33675097190608699</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-8.7498978717718504E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-0.26430770388717101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.670034475644377</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.620761926187379</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.73674701032847</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.581406069858555</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0785761040066257</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" s="1">
+        <v>0.67003447564437701</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.62076192618737902</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.73674701032847001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.58140606985855503</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.8576104006625694E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.755493413463443</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.336750971906087</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.73674701032847</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.647842704717801</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.0766165520632107</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" s="1">
+        <v>0.75549341346344301</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.33675097190608699</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.73674701032847001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.64784270471780103</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-7.6616552063210705E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.684157008417549</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.00874989787177185</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.581406069858555</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.647842704717801</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="B6" s="1">
+        <v>0.68415700841754901</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-8.7498978717718504E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.58140606985855503</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.64784270471780103</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>0.100967255223387</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1">
         <v>0.340680138398882</v>
       </c>
-      <c r="C7" t="n">
-        <v>-0.264307703887171</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0785761040066257</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.0766165520632107</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="C7" s="1">
+        <v>-0.26430770388717101</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7.8576104006625694E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-7.6616552063210705E-2</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.100967255223387</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:G7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,146 +596,158 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.626183772297148</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.225521003199583</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.421587623711821</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.279045661520641</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.62618377229714794</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.22552100319958299</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.42158762371182101</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-0.27904566152064098</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.550979354401257</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.626183772297148</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.617722889630418</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.414426997234249</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.297044211084444</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.037578618119931</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" s="1">
+        <v>0.62618377229714794</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.61772288963041799</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.41442699723424897</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.29704421108444401</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.7578618119930997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.225521003199583</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.617722889630418</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0631170627155323</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0778109103002505</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="B4" s="1">
+        <v>0.22552100319958299</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.61772288963041799</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.3117062715532302E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7.7810910300250502E-2</v>
+      </c>
+      <c r="G4" s="1">
         <v>-0.118899841709907</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.421587623711821</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.414426997234249</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0631170627155323</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.169126526047163</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0126609220469096</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" s="1">
+        <v>0.42158762371182101</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.41442699723424897</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.3117062715532302E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.16912652604716299</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.2660922046909599E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>-0.279045661520641</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.297044211084444</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0778109103002505</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.169126526047163</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.462585389015538</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" s="1">
+        <v>-0.27904566152064098</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.29704421108444401</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.7810910300250502E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.16912652604716299</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-0.46258538901553797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1">
         <v>0.550979354401257</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.037578618119931</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7" s="1">
+        <v>3.7578618119930997E-2</v>
+      </c>
+      <c r="D7" s="1">
         <v>-0.118899841709907</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.0126609220469096</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.462585389015538</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="E7" s="1">
+        <v>1.2660922046909599E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.46258538901553797</v>
+      </c>
+      <c r="G7" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:G7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/scripts/Edouard/Correlation_matrix_ville.xlsx
+++ b/scripts/Edouard/Correlation_matrix_ville.xlsx
@@ -1,54 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Répertoires Git/toflit18_data_GIT/scripts/Edouard/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B0C275-4B93-9D45-BE1C-D04E20D14437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="10720" windowHeight="6180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Imports" sheetId="1" r:id="rId1"/>
-    <sheet name="Exports" sheetId="2" r:id="rId2"/>
+    <sheet name="Imports" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Exports" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t/>
+    <t xml:space="preserve"/>
   </si>
   <si>
-    <t>Nantes</t>
+    <t xml:space="preserve">Nantes</t>
   </si>
   <si>
-    <t>Marseille</t>
+    <t xml:space="preserve">Marseille</t>
   </si>
   <si>
-    <t>Bordeaux</t>
+    <t xml:space="preserve">Bordeaux</t>
   </si>
   <si>
-    <t>La Rochelle</t>
+    <t xml:space="preserve">La Rochelle</t>
   </si>
   <si>
-    <t>Bayonne</t>
+    <t xml:space="preserve">Bayonne</t>
   </si>
   <si>
-    <t>Rennes</t>
+    <t xml:space="preserve">Rennes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -77,23 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -375,16 +358,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,173 +388,159 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.38248940164267098</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.67003447564437701</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.75549341346344301</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.68415700841754901</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.340680138398882</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.401037379741703</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.669247944947023</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.757539923452363</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.684157008417548</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.341264876093749</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.38248940164267098</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.62076192618737902</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.33675097190608699</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-8.7498978717718504E-3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-0.26430770388717101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="n">
+        <v>0.401037379741703</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.641351182450788</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.328587475137172</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0104324534166673</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.219667613680824</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.67003447564437701</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.62076192618737902</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.73674701032847001</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.58140606985855503</v>
-      </c>
-      <c r="G4" s="1">
-        <v>7.8576104006625694E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="n">
+        <v>0.669247944947023</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.641351182450788</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.747630766075363</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.580352769542977</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0796205434817873</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.75549341346344301</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.33675097190608699</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.73674701032847001</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.64784270471780103</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-7.6616552063210705E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="n">
+        <v>0.757539923452363</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.328587475137172</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.747630766075363</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.651883755900176</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.0741867862708555</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.68415700841754901</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-8.7498978717718504E-3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.58140606985855503</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.64784270471780103</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.100967255223387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="n">
+        <v>0.684157008417548</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0104324534166673</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.580352769542977</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.651883755900176</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.10127161935984</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.340680138398882</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-0.26430770388717101</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7.8576104006625694E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-7.6616552063210705E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.100967255223387</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="B7" t="n">
+        <v>0.341264876093749</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.219667613680824</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0796205434817873</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.0741867862708555</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.10127161935984</v>
+      </c>
+      <c r="G7" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G7">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FFFFC000"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,158 +563,146 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.62618377229714794</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.22552100319958299</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.42158762371182101</v>
-      </c>
-      <c r="F2" s="1">
-        <v>-0.27904566152064098</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.550979354401257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.629906797741115</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.230305966374754</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.424446886131912</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.27904566152064</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.551032284849136</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.62618377229714794</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.61772288963041799</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.41442699723424897</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.29704421108444401</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3.7578618119930997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="n">
+        <v>0.629906797741115</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.591124837168934</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.373074435352605</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.301361729961415</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0349732365459067</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.22552100319958299</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.61772288963041799</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6.3117062715532302E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>7.7810910300250502E-2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-0.118899841709907</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="n">
+        <v>0.230305966374754</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.591124837168934</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.194076576508112</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0761348154890387</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.117990893270835</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.42158762371182101</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.41442699723424897</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6.3117062715532302E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.16912652604716299</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.2660922046909599E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="n">
+        <v>0.424446886131912</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.373074435352605</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.194076576508112</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.171218274849337</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0100762008478625</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>-0.27904566152064098</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.29704421108444401</v>
-      </c>
-      <c r="D6" s="1">
-        <v>7.7810910300250502E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.16912652604716299</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-0.46258538901553797</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="n">
+        <v>-0.27904566152064</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.301361729961415</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0761348154890387</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.171218274849337</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.46239612027468</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.550979354401257</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.7578618119930997E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-0.118899841709907</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.2660922046909599E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-0.46258538901553797</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="B7" t="n">
+        <v>0.551032284849136</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0349732365459067</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.117990893270835</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0100762008478625</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.46239612027468</v>
+      </c>
+      <c r="G7" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G7">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/scripts/Edouard/Correlation_matrix_ville.xlsx
+++ b/scripts/Edouard/Correlation_matrix_ville.xlsx
@@ -396,19 +396,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.401037379741703</v>
+        <v>0.493367024071237</v>
       </c>
       <c r="D2" t="n">
-        <v>0.669247944947023</v>
+        <v>0.659662165314355</v>
       </c>
       <c r="E2" t="n">
-        <v>0.757539923452363</v>
+        <v>0.770933069422289</v>
       </c>
       <c r="F2" t="n">
-        <v>0.684157008417548</v>
+        <v>0.549502247347733</v>
       </c>
       <c r="G2" t="n">
-        <v>0.341264876093749</v>
+        <v>0.217973605171083</v>
       </c>
     </row>
     <row r="3">
@@ -416,22 +416,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.401037379741703</v>
+        <v>0.493367024071237</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.641351182450788</v>
+        <v>0.551897196626651</v>
       </c>
       <c r="E3" t="n">
-        <v>0.328587475137172</v>
+        <v>0.447316253062892</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0104324534166673</v>
+        <v>-0.0655443226404276</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.219667613680824</v>
+        <v>-0.298608174491895</v>
       </c>
     </row>
     <row r="4">
@@ -439,22 +439,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.669247944947023</v>
+        <v>0.659662165314355</v>
       </c>
       <c r="C4" t="n">
-        <v>0.641351182450788</v>
+        <v>0.551897196626651</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.747630766075363</v>
+        <v>0.78361925100665</v>
       </c>
       <c r="F4" t="n">
-        <v>0.580352769542977</v>
+        <v>0.392488167211744</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0796205434817873</v>
+        <v>-0.12359513834032</v>
       </c>
     </row>
     <row r="5">
@@ -462,22 +462,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.757539923452363</v>
+        <v>0.770933069422289</v>
       </c>
       <c r="C5" t="n">
-        <v>0.328587475137172</v>
+        <v>0.447316253062892</v>
       </c>
       <c r="D5" t="n">
-        <v>0.747630766075363</v>
+        <v>0.78361925100665</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.651883755900176</v>
+        <v>0.55063452664881</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0741867862708555</v>
+        <v>-0.22625033920859</v>
       </c>
     </row>
     <row r="6">
@@ -485,22 +485,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.684157008417548</v>
+        <v>0.549502247347733</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0104324534166673</v>
+        <v>-0.0655443226404276</v>
       </c>
       <c r="D6" t="n">
-        <v>0.580352769542977</v>
+        <v>0.392488167211744</v>
       </c>
       <c r="E6" t="n">
-        <v>0.651883755900176</v>
+        <v>0.55063452664881</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.10127161935984</v>
+        <v>0.0668730984730335</v>
       </c>
     </row>
     <row r="7">
@@ -508,19 +508,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.341264876093749</v>
+        <v>0.217973605171083</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.219667613680824</v>
+        <v>-0.298608174491895</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0796205434817873</v>
+        <v>-0.12359513834032</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0741867862708555</v>
+        <v>-0.22625033920859</v>
       </c>
       <c r="F7" t="n">
-        <v>0.10127161935984</v>
+        <v>0.0668730984730335</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -571,19 +571,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.629906797741115</v>
+        <v>0.497973550996671</v>
       </c>
       <c r="D2" t="n">
-        <v>0.230305966374754</v>
+        <v>-0.0643901413606171</v>
       </c>
       <c r="E2" t="n">
-        <v>0.424446886131912</v>
+        <v>0.463761020727406</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.27904566152064</v>
+        <v>-0.331023633136514</v>
       </c>
       <c r="G2" t="n">
-        <v>0.551032284849136</v>
+        <v>0.542387538504438</v>
       </c>
     </row>
     <row r="3">
@@ -591,22 +591,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.629906797741115</v>
+        <v>0.497973550996671</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.591124837168934</v>
+        <v>0.190702768235947</v>
       </c>
       <c r="E3" t="n">
-        <v>0.373074435352605</v>
+        <v>0.508427566507527</v>
       </c>
       <c r="F3" t="n">
-        <v>0.301361729961415</v>
+        <v>0.505597673361365</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0349732365459067</v>
+        <v>0.0733371328413457</v>
       </c>
     </row>
     <row r="4">
@@ -614,22 +614,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.230305966374754</v>
+        <v>-0.0643901413606171</v>
       </c>
       <c r="C4" t="n">
-        <v>0.591124837168934</v>
+        <v>0.190702768235947</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.194076576508112</v>
+        <v>0.0458749036578238</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0761348154890387</v>
+        <v>0.0737230234435839</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.117990893270835</v>
+        <v>-0.0448196890732375</v>
       </c>
     </row>
     <row r="5">
@@ -637,22 +637,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.424446886131912</v>
+        <v>0.463761020727406</v>
       </c>
       <c r="C5" t="n">
-        <v>0.373074435352605</v>
+        <v>0.508427566507527</v>
       </c>
       <c r="D5" t="n">
-        <v>0.194076576508112</v>
+        <v>0.0458749036578238</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.171218274849337</v>
+        <v>0.262866408852198</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0100762008478625</v>
+        <v>0.0447915176767876</v>
       </c>
     </row>
     <row r="6">
@@ -660,22 +660,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.27904566152064</v>
+        <v>-0.331023633136514</v>
       </c>
       <c r="C6" t="n">
-        <v>0.301361729961415</v>
+        <v>0.505597673361365</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0761348154890387</v>
+        <v>0.0737230234435839</v>
       </c>
       <c r="E6" t="n">
-        <v>0.171218274849337</v>
+        <v>0.262866408852198</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.46239612027468</v>
+        <v>-0.434127752053819</v>
       </c>
     </row>
     <row r="7">
@@ -683,19 +683,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.551032284849136</v>
+        <v>0.542387538504438</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0349732365459067</v>
+        <v>0.0733371328413457</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.117990893270835</v>
+        <v>-0.0448196890732375</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0100762008478625</v>
+        <v>0.0447915176767876</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.46239612027468</v>
+        <v>-0.434127752053819</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
